--- a/Student Timetable/SecondYearTimetable.xlsx
+++ b/Student Timetable/SecondYearTimetable.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6869D996-84C4-485E-A6E0-8358D918CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42554605-378B-47DF-B3A6-7C98F6C970B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="csa" sheetId="1" r:id="rId1"/>
-    <sheet name="csb" sheetId="3" r:id="rId2"/>
-    <sheet name="eee" sheetId="2" r:id="rId3"/>
+    <sheet name="cs" sheetId="1" r:id="rId1"/>
+    <sheet name="eee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>subject</t>
   </si>
@@ -365,7 +364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -404,52 +403,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B23304-21BA-4364-A8CA-6D0BEAA4B346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45040</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Student Timetable/SecondYearTimetable.xlsx
+++ b/Student Timetable/SecondYearTimetable.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42554605-378B-47DF-B3A6-7C98F6C970B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E5F34-AD9A-439B-844F-56BC187D3A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
-    <sheet name="eee" sheetId="2" r:id="rId2"/>
+    <sheet name="ec" sheetId="3" r:id="rId2"/>
+    <sheet name="ee" sheetId="2" r:id="rId3"/>
+    <sheet name="ad" sheetId="7" r:id="rId4"/>
+    <sheet name="ce" sheetId="6" r:id="rId5"/>
+    <sheet name="me" sheetId="4" r:id="rId6"/>
+    <sheet name="mr" sheetId="5" r:id="rId7"/>
+    <sheet name="rb" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>subject</t>
   </si>
@@ -44,6 +50,42 @@
   </si>
   <si>
     <t>dc machines</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>robo</t>
+  </si>
+  <si>
+    <t>3d</t>
   </si>
 </sst>
 </file>
@@ -364,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +445,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018A47D-0B96-4826-BABB-598085044E19}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -442,4 +526,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A6E6C-311D-4728-BDEA-3E960A95EEA3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1523B-6863-4B37-AA41-0AF8F82690BE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4D9538-784D-4009-BAF1-79DB8BA867B9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411984D2-9A00-44C6-922F-E24ACA08E72F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE95FE0-8246-4C89-AD5C-135437D415E9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Student Timetable/SecondYearTimetable.xlsx
+++ b/Student Timetable/SecondYearTimetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E5F34-AD9A-439B-844F-56BC187D3A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEBBF1-258D-44C8-A029-871A2DDD8DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>subject</t>
   </si>
@@ -40,52 +40,49 @@
     <t>date</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>coa</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>dc machines</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>leg</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>equipment</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>robo</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Database Management Systems</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing</t>
+  </si>
+  <si>
+    <t>Analog Electronic Circuits</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Dc machines</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Fundamentals</t>
+  </si>
+  <si>
+    <t>Machine Learning for Aerospace</t>
+  </si>
+  <si>
+    <t>Strength of Materials</t>
+  </si>
+  <si>
+    <t>Surveying</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Mechanics of Solids</t>
+  </si>
+  <si>
+    <t>Control Systems</t>
+  </si>
+  <si>
+    <t>Robot Programming</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,94 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018A47D-0B96-4826-BABB-598085044E19}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +512,7 @@
         <v>45040</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +520,7 @@
         <v>45041</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -444,8 +528,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018A47D-0B96-4826-BABB-598085044E19}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A6E6C-311D-4728-BDEA-3E960A95EEA3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -467,102 +551,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45030</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45040</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A6E6C-311D-4728-BDEA-3E960A95EEA3}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
         <v>45036</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45038</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1523B-6863-4B37-AA41-0AF8F82690BE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -595,16 +595,16 @@
       <c r="A2" s="1">
         <v>45028</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45030</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -637,16 +637,16 @@
       <c r="A2" s="1">
         <v>45032</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45034</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -679,16 +679,16 @@
       <c r="A2" s="1">
         <v>45032</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45034</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE95FE0-8246-4C89-AD5C-135437D415E9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,16 +721,16 @@
       <c r="A2" s="1">
         <v>45040</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45042</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
